--- a/Charts/0.OverviewDiagrams/Eventtable And Usecasetable/v01.xlsx
+++ b/Charts/0.OverviewDiagrams/Eventtable And Usecasetable/v01.xlsx
@@ -1,18 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxjax/developer/SW3/Charts/0.OverviewDiagrams/Eventtable And Usecasetable/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5034390-1FC3-C041-81EE-B4C7A13ECF90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="EventTable" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Usecase Table" sheetId="2" r:id="rId5"/>
+    <sheet name="EventTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Usecase Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EventTable!$A$1:$K$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Object (Martin B)</t>
   </si>
@@ -35,33 +57,9 @@
     <t>Base (Martin)</t>
   </si>
   <si>
-    <t>Serienummer registreret i Database</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>komponent skannet</t>
-  </si>
-  <si>
-    <t>simkort tilknyttes komponent</t>
-  </si>
-  <si>
-    <t>komponent tilknyttes Robotten</t>
-  </si>
-  <si>
-    <t>simkort aktiveret</t>
-  </si>
-  <si>
-    <t>Check om serienumre alleredefindes i databasen, ie. validerede komponenter</t>
-  </si>
-  <si>
-    <t>Podio ID genereres til tablet</t>
-  </si>
-  <si>
-    <t>Qr kode genereret</t>
-  </si>
-  <si>
     <t>Hvornår er serienumrerne i databasen</t>
   </si>
   <si>
@@ -171,34 +169,119 @@
   </si>
   <si>
     <t>Skal systemet holde styr på lageret</t>
+  </si>
+  <si>
+    <t>RobotList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration mainView </t>
+  </si>
+  <si>
+    <t>Robot detail view</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>activated</t>
+  </si>
+  <si>
+    <t>linked to robot serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registered to Central DB </t>
+  </si>
+  <si>
+    <t>deactivated</t>
+  </si>
+  <si>
+    <t>Assembled</t>
+  </si>
+  <si>
+    <t>Unsyncronized local data (betyder at der er data på appen som skal i db)</t>
+  </si>
+  <si>
+    <t>syncronized to db (betyder at appens robot svarer til DB)</t>
+  </si>
+  <si>
+    <t>scanned</t>
+  </si>
+  <si>
+    <t>Discarded</t>
+  </si>
+  <si>
+    <t>powered on</t>
+  </si>
+  <si>
+    <t>activated wifi</t>
+  </si>
+  <si>
+    <t>Attatched scannable lable</t>
+  </si>
+  <si>
+    <t>linked to other component</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Unassembled</t>
+  </si>
+  <si>
+    <t>Automatic Readable serial</t>
+  </si>
+  <si>
+    <t>Manual Readable serial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -206,56 +289,79 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -445,25 +551,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="105.57"/>
-    <col customWidth="1" min="2" max="2" width="17.71"/>
-    <col customWidth="1" min="6" max="6" width="15.71"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="10"/>
+    <col min="5" max="5" width="15.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,455 +586,463 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="J52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="53" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="J53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="54" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="J54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="55" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="J55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="56" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="57" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
+    <row r="61" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="62" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I62" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="65" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="66" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="67" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="68" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I68" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="69" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="72" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I72" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="74" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I74" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+    <row r="75" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I75" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:K1" xr:uid="{14EA0003-3102-EB48-8438-00F8EE86188D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K58">
+      <sortCondition ref="A1:A58"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="56.29"/>
-    <col customWidth="1" min="2" max="2" width="21.86"/>
-    <col customWidth="1" min="3" max="3" width="30.86"/>
-    <col customWidth="1" min="4" max="4" width="16.57"/>
-    <col customWidth="1" min="5" max="5" width="22.57"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>